--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T09:08:43+00:00</t>
+    <t>2024-01-11T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T11:17:12+00:00</t>
+    <t>2024-01-15T10:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:25:07+00:00</t>
+    <t>2024-01-15T15:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:13:31+00:00</t>
+    <t>2024-01-15T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:15:33+00:00</t>
+    <t>2024-01-22T13:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:46:22+00:00</t>
+    <t>2024-01-24T10:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T10:06:27+00:00</t>
+    <t>2024-01-24T12:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T12:52:29+00:00</t>
+    <t>2024-01-24T17:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T17:10:03+00:00</t>
+    <t>2024-02-12T09:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:57:27+00:00</t>
+    <t>2024-02-15T13:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T13:54:33+00:00</t>
+    <t>2024-02-15T16:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:42:49+00:00</t>
+    <t>2024-02-15T16:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:43:54+00:00</t>
+    <t>2024-02-15T17:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:28:18+00:00</t>
+    <t>2024-02-16T08:51:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T08:51:01+00:00</t>
+    <t>2024-02-16T15:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
